--- a/xx.xlsx
+++ b/xx.xlsx
@@ -422,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
@@ -587,6 +590,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>17</v>
@@ -606,6 +614,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
@@ -626,6 +637,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
@@ -644,6 +658,14 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>

--- a/xx.xlsx
+++ b/xx.xlsx
@@ -432,6 +432,7 @@
   <cols>
     <col min="3" max="3" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="25" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
@@ -465,19 +466,19 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>240800000</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>240800000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -493,16 +494,16 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6875000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -592,7 +593,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="I12">
-        <v>0</v>
+        <v>6875000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -666,7 +667,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="I16">
-        <v>0</v>
+        <v>247675000</v>
       </c>
     </row>
   </sheetData>

--- a/xx.xlsx
+++ b/xx.xlsx
@@ -90,7 +90,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <b val="0"/>
@@ -119,8 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -425,36 +433,38 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="25" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -465,7 +475,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4">
@@ -474,10 +484,10 @@
       <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>240800000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>240800000</v>
       </c>
     </row>
@@ -493,7 +503,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>125000</v>
       </c>
       <c r="F6">
@@ -502,7 +512,7 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>6875000</v>
       </c>
     </row>
@@ -510,7 +520,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7">
@@ -519,7 +529,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -527,7 +537,7 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8">
@@ -536,7 +546,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -544,7 +554,7 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9">
@@ -553,7 +563,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -561,7 +571,7 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10">
@@ -570,7 +580,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -578,7 +588,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11">
@@ -587,12 +597,12 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="I12">
+      <c r="I12" s="2">
         <v>6875000</v>
       </c>
     </row>
@@ -603,7 +613,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13">
@@ -612,10 +622,10 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -626,7 +636,7 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14">
@@ -635,10 +645,10 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -649,7 +659,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15">
@@ -658,15 +668,15 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16">
+      <c r="I16" s="2">
         <v>247675000</v>
       </c>
     </row>

--- a/xx.xlsx
+++ b/xx.xlsx
@@ -26,7 +26,8 @@
     <t>NOMINAL</t>
   </si>
   <si>
-    <t>JUMLAH SISWA</t>
+    <t>JUMLAH
+SISWA</t>
   </si>
   <si>
     <t>BULAN</t>
@@ -121,12 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -445,7 +449,7 @@
     <col min="9" max="9" width="18" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" customHeight="1" ht="30">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +459,7 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -475,7 +479,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>800000</v>
       </c>
       <c r="F4">
@@ -484,10 +488,10 @@
       <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>240800000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>240800000</v>
       </c>
     </row>
@@ -503,7 +507,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>125000</v>
       </c>
       <c r="F6">
@@ -512,7 +516,7 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>6875000</v>
       </c>
     </row>
@@ -520,7 +524,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7">
@@ -529,7 +533,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -537,7 +541,7 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8">
@@ -546,7 +550,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -554,7 +558,7 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9">
@@ -563,7 +567,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -571,7 +575,7 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10">
@@ -580,7 +584,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -588,7 +592,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11">
@@ -597,12 +601,12 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>6875000</v>
       </c>
     </row>
@@ -613,7 +617,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13">
@@ -622,10 +626,10 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -636,7 +640,7 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14">
@@ -645,10 +649,10 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -659,7 +663,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15">
@@ -668,15 +672,15 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>247675000</v>
       </c>
     </row>

--- a/xx.xlsx
+++ b/xx.xlsx
@@ -116,23 +116,102 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="8" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -450,36 +529,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" customHeight="1" ht="30">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D4"/>
+      <c r="E4" s="1">
         <v>800000</v>
       </c>
       <c r="F4">
@@ -488,26 +569,34 @@
       <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>240800000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <v>240800000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
+      <c r="B6" s="3"/>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>125000</v>
       </c>
       <c r="F6">
@@ -516,15 +605,18 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>6875000</v>
       </c>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
+      <c r="B7" s="3"/>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7">
@@ -533,15 +625,18 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
+      <c r="B8" s="3"/>
+      <c r="C8"/>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8">
@@ -550,15 +645,18 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
+      <c r="B9" s="3"/>
+      <c r="C9"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9">
@@ -567,15 +665,18 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9">
+      <c r="B10" s="3"/>
+      <c r="C10"/>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10">
@@ -584,15 +685,18 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
+      <c r="B11" s="3"/>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11">
@@ -601,23 +705,32 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="I12" s="3">
+      <c r="B12" s="3"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" s="10">
         <v>6875000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3">
+      <c r="D13"/>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13">
@@ -626,21 +739,22 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3">
+      <c r="D14"/>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14">
@@ -649,21 +763,22 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3">
+      <c r="D15"/>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15">
@@ -672,15 +787,22 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12">
         <v>247675000</v>
       </c>
     </row>
